--- a/outputs/nikolaus_einsatzplaene.xlsx
+++ b/outputs/nikolaus_einsatzplaene.xlsx
@@ -100,55 +100,55 @@
     <t>K5</t>
   </si>
   <si>
-    <t>ID3 → ID35 → ID36</t>
-  </si>
-  <si>
-    <t>ID19 → ID31 → ID26</t>
-  </si>
-  <si>
-    <t>ID42</t>
-  </si>
-  <si>
-    <t>ID6 → ID10 → ID39</t>
-  </si>
-  <si>
-    <t>ID16 → ID21 → ID27</t>
+    <t>ID1 → ID3 → ID35</t>
+  </si>
+  <si>
+    <t>ID12 → ID26 → ID14</t>
+  </si>
+  <si>
+    <t>ID41 → ID43</t>
+  </si>
+  <si>
+    <t>ID6 → ID10 → ID38</t>
+  </si>
+  <si>
+    <t>ID20 → ID22 → ID40</t>
   </si>
   <si>
     <t>ID23</t>
   </si>
   <si>
-    <t>ID1 → ID2 → ID11</t>
-  </si>
-  <si>
-    <t>ID12 → ID30 → ID14</t>
+    <t>ID2 → ID11</t>
+  </si>
+  <si>
+    <t>ID16 → ID27 → ID18</t>
+  </si>
+  <si>
+    <t>ID36</t>
+  </si>
+  <si>
+    <t>ID7</t>
+  </si>
+  <si>
+    <t>ID15 → ID17 → ID29</t>
+  </si>
+  <si>
+    <t>ID32 → ID33</t>
+  </si>
+  <si>
+    <t>ID5 → ID9 → ID8</t>
+  </si>
+  <si>
+    <t>ID19 → ID31 → ID42</t>
+  </si>
+  <si>
+    <t>ID34 → ID39</t>
   </si>
   <si>
     <t>ID37</t>
   </si>
   <si>
-    <t>ID7</t>
-  </si>
-  <si>
-    <t>ID18 → ID28</t>
-  </si>
-  <si>
-    <t>ID32 → ID33</t>
-  </si>
-  <si>
-    <t>ID5 → ID9 → ID8</t>
-  </si>
-  <si>
-    <t>ID15 → ID17 → ID29</t>
-  </si>
-  <si>
-    <t>ID34 → ID40</t>
-  </si>
-  <si>
-    <t>ID38</t>
-  </si>
-  <si>
-    <t>ID20 → ID22 → ID41</t>
+    <t>ID21 → ID30 → ID28</t>
   </si>
   <si>
     <t>ID4</t>
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <v>0.92</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -616,10 +616,10 @@
         <v>30</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -671,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>7.99</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -720,10 +720,10 @@
         <v>34</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>1.93</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -749,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>6.1</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -824,10 +824,10 @@
         <v>38</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>5.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -905,7 +905,7 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>0.29</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="H18">
-        <v>0.3</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="19" spans="1:8">
